--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject31.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject31.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="11.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="11.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0</v>
+        <v>0.59776029305933842</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -146,7 +146,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="0">
-        <v>0</v>
+        <v>0.77910382604561423</v>
       </c>
       <c r="H1" s="0">
         <v>0</v>
@@ -233,7 +233,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>0</v>
+        <v>0.77725701929059943</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
@@ -248,7 +248,7 @@
         <v>0</v>
       </c>
       <c r="AO1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP1" s="0">
         <v>0</v>
@@ -257,7 +257,7 @@
         <v>0</v>
       </c>
       <c r="AR1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS1" s="0">
         <v>0</v>
@@ -278,7 +278,7 @@
         <v>0</v>
       </c>
       <c r="AY1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ1" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>0.66879315422556562</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -409,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="Z2" s="0">
-        <v>0</v>
+        <v>0.82186823835622469</v>
       </c>
       <c r="AA2" s="0">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="AN2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="0">
         <v>0</v>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="AW2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX2" s="0">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="BM2" s="0">
-        <v>0</v>
+        <v>0.89756391939216718</v>
       </c>
       <c r="BN2" s="0">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>0.79821795875583834</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="O3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>0</v>
+        <v>0.81760868468223258</v>
       </c>
       <c r="Q3" s="0">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="0">
-        <v>0</v>
+        <v>0.81646313486198419</v>
       </c>
       <c r="AB3" s="0">
         <v>0</v>
@@ -672,16 +672,16 @@
         <v>0</v>
       </c>
       <c r="AS3" s="0">
-        <v>0</v>
+        <v>0.54045121917039141</v>
       </c>
       <c r="AT3" s="0">
         <v>0</v>
       </c>
       <c r="AU3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" s="0">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="0">
-        <v>0</v>
+        <v>0.82602484691232492</v>
       </c>
       <c r="BA3" s="0">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="BG3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="0">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="BO3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.54294523293125718</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="0">
-        <v>0</v>
+        <v>0.9446182105821137</v>
       </c>
       <c r="T4" s="0">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="AD4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="0">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="AT4" s="0">
-        <v>0</v>
+        <v>0.56820780366322521</v>
       </c>
       <c r="AU4" s="0">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="BE4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0</v>
+        <v>0.5793609792554032</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -988,10 +988,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="0">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>0</v>
+        <v>0.80298655549117748</v>
       </c>
       <c r="V5" s="0">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="AL5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="0">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="0">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="BF5" s="0">
-        <v>0</v>
+        <v>0.53092604257589293</v>
       </c>
       <c r="BG5" s="0">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="BO5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP5" s="0">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.69110334031741094</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1191,13 +1191,13 @@
         <v>0</v>
       </c>
       <c r="L6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="0">
         <v>0</v>
       </c>
       <c r="N6" s="0">
-        <v>0</v>
+        <v>0.9602431727502212</v>
       </c>
       <c r="O6" s="0">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="0">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="0">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="BB6" s="0">
-        <v>0</v>
+        <v>0.66303139184293758</v>
       </c>
       <c r="BC6" s="0">
         <v>0</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0</v>
+        <v>0.70880501994261347</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>0.91244217088861534</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.84587132537764509</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="0">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="0">
-        <v>0</v>
+        <v>0.82630594711146754</v>
       </c>
       <c r="AG7" s="0">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="0">
-        <v>0</v>
+        <v>0.61828429238127924</v>
       </c>
       <c r="AJ7" s="0">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.71754416546673616</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="0">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="0">
-        <v>0</v>
+        <v>0.55905648961033005</v>
       </c>
       <c r="W8" s="0">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="BB8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="0">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="0">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="BL8" s="0">
-        <v>0</v>
+        <v>0.97158818074988673</v>
       </c>
       <c r="BM8" s="0">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="BO8" s="0">
-        <v>0</v>
+        <v>0.89894470229685386</v>
       </c>
       <c r="BP8" s="0">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1833,13 +1833,13 @@
         <v>0</v>
       </c>
       <c r="T9" s="0">
-        <v>0</v>
+        <v>0.51969978081964752</v>
       </c>
       <c r="U9" s="0">
         <v>0</v>
       </c>
       <c r="V9" s="0">
-        <v>0</v>
+        <v>0.93073208681542108</v>
       </c>
       <c r="W9" s="0">
         <v>0</v>
@@ -1848,13 +1848,13 @@
         <v>0</v>
       </c>
       <c r="Y9" s="0">
-        <v>0</v>
+        <v>0.66189740763633287</v>
       </c>
       <c r="Z9" s="0">
         <v>0</v>
       </c>
       <c r="AA9" s="0">
-        <v>0</v>
+        <v>0.84566039907982815</v>
       </c>
       <c r="AB9" s="0">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="AW9" s="0">
-        <v>0</v>
+        <v>0.58236990966343138</v>
       </c>
       <c r="AX9" s="0">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK9" s="0">
         <v>0</v>
@@ -2000,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.56985660364772761</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2063,16 +2063,16 @@
         <v>0</v>
       </c>
       <c r="AB10" s="0">
-        <v>0</v>
+        <v>0.86307542078166022</v>
       </c>
       <c r="AC10" s="0">
         <v>0</v>
       </c>
       <c r="AD10" s="0">
-        <v>0</v>
+        <v>0.98806886116885073</v>
       </c>
       <c r="AE10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="0">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="0">
-        <v>0</v>
+        <v>0.79356369734218446</v>
       </c>
       <c r="BB10" s="0">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="0">
-        <v>0</v>
+        <v>0.75600960401995421</v>
       </c>
       <c r="BF10" s="0">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK10" s="0">
         <v>0</v>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="0">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>0</v>
+        <v>0.70548555134855295</v>
       </c>
       <c r="AM11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="0">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="0">
-        <v>0</v>
+        <v>0.94497689187669542</v>
       </c>
       <c r="AS11" s="0">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="BD11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="0">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="0">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="AI12" s="0">
-        <v>0</v>
+        <v>0.58206333809575539</v>
       </c>
       <c r="AJ12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="0">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="AU12" s="0">
-        <v>0</v>
+        <v>0.91908496928317995</v>
       </c>
       <c r="AV12" s="0">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="BP12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="0">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2675,10 +2675,10 @@
         <v>0</v>
       </c>
       <c r="Z13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="0">
-        <v>0</v>
+        <v>0.6519670348663712</v>
       </c>
       <c r="AB13" s="0">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="0">
         <v>0</v>
@@ -2729,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="AR13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="0">
         <v>0</v>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="AV13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="0">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="BC13" s="0">
-        <v>0</v>
+        <v>0.56915761804079446</v>
       </c>
       <c r="BD13" s="0">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="BM13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="0">
         <v>0</v>
@@ -2818,10 +2818,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="0">
-        <v>0</v>
+        <v>0.71700245619121461</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
@@ -2899,10 +2899,10 @@
         <v>0</v>
       </c>
       <c r="AF14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="0">
         <v>0</v>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="0">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="0">
-        <v>0</v>
+        <v>0.7804537645445655</v>
       </c>
       <c r="AO14" s="0">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="0">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="BB14" s="0">
-        <v>0</v>
+        <v>0.59417014631632092</v>
       </c>
       <c r="BC14" s="0">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="BI14" s="0">
-        <v>0</v>
+        <v>0.87875830600582161</v>
       </c>
       <c r="BJ14" s="0">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="0">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="0">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="0">
-        <v>0</v>
+        <v>0.57996743033476594</v>
       </c>
       <c r="AA15" s="0">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AO15" s="0">
-        <v>0</v>
+        <v>0.65685339796006437</v>
       </c>
       <c r="AP15" s="0">
         <v>0</v>
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="0">
-        <v>0</v>
+        <v>0.94802636237312088</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="AT16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="0">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="AW16" s="0">
-        <v>0</v>
+        <v>0.62293989567690211</v>
       </c>
       <c r="AX16" s="0">
         <v>0</v>
@@ -3374,13 +3374,13 @@
         <v>0</v>
       </c>
       <c r="BA16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB16" s="0">
         <v>0</v>
       </c>
       <c r="BC16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="0">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="BN16" s="0">
-        <v>0</v>
+        <v>0.97622662166870722</v>
       </c>
       <c r="BO16" s="0">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="0">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0</v>
+        <v>0.80156808810832003</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="AG17" s="0">
-        <v>0</v>
+        <v>0.82706457591667215</v>
       </c>
       <c r="AH17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="0">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="AW17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="0">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="BD17" s="0">
-        <v>0</v>
+        <v>0.66712571696183187</v>
       </c>
       <c r="BE17" s="0">
         <v>0</v>
@@ -3598,13 +3598,13 @@
         <v>0</v>
       </c>
       <c r="BG17" s="0">
-        <v>0</v>
+        <v>0.73252604703687396</v>
       </c>
       <c r="BH17" s="0">
         <v>0</v>
       </c>
       <c r="BI17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ17" s="0">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0</v>
+        <v>0.63311106752997148</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.66961584785577866</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="0">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="AS18" s="0">
-        <v>0</v>
+        <v>0.94341809453141101</v>
       </c>
       <c r="AT18" s="0">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AY18" s="0">
-        <v>0</v>
+        <v>0.59042464383691151</v>
       </c>
       <c r="AZ18" s="0">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="BH18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="0">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="BN18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO18" s="0">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="0">
-        <v>0</v>
+        <v>0.55743302188476418</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
@@ -3893,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.74778916937774054</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="0">
-        <v>0</v>
+        <v>0.58420954319280383</v>
       </c>
       <c r="AG19" s="0">
         <v>0</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="AV19" s="0">
-        <v>0</v>
+        <v>0.60341256643472951</v>
       </c>
       <c r="AW19" s="0">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="AY19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="0">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="BE19" s="0">
-        <v>0</v>
+        <v>0.90046019964319624</v>
       </c>
       <c r="BF19" s="0">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="BL19" s="0">
-        <v>0</v>
+        <v>0.85293945659078374</v>
       </c>
       <c r="BM19" s="0">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="0">
-        <v>0</v>
+        <v>0.66780914533133751</v>
       </c>
       <c r="J20" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.58624511767832077</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.64686535032909376</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="0">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="0">
-        <v>0</v>
+        <v>0.62849106417958622</v>
       </c>
       <c r="AL20" s="0">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="AV20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="0">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="BJ20" s="0">
-        <v>0</v>
+        <v>0.63412335968243383</v>
       </c>
       <c r="BK20" s="0">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="BM20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="0">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="0">
-        <v>0</v>
+        <v>0.61287420043676633</v>
       </c>
       <c r="F21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.90352773981993195</v>
       </c>
       <c r="W21" s="0">
-        <v>0</v>
+        <v>0.60124651602387269</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="BF21" s="0">
-        <v>0</v>
+        <v>0.51160137518507498</v>
       </c>
       <c r="BG21" s="0">
         <v>0</v>
@@ -4428,19 +4428,19 @@
         <v>0</v>
       </c>
       <c r="BI21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ21" s="0">
         <v>0</v>
       </c>
       <c r="BK21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL21" s="0">
         <v>0</v>
       </c>
       <c r="BM21" s="0">
-        <v>0</v>
+        <v>0.59260575277262562</v>
       </c>
       <c r="BN21" s="0">
         <v>0</v>
@@ -4475,10 +4475,10 @@
         <v>0</v>
       </c>
       <c r="H22" s="0">
-        <v>0</v>
+        <v>0.65698878398041172</v>
       </c>
       <c r="I22" s="0">
-        <v>0</v>
+        <v>0.94166600014554247</v>
       </c>
       <c r="J22" s="0">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="0">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.50980913860168098</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="BA22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="0">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="BG22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH22" s="0">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0</v>
+        <v>0.62065155854744036</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="AH23" s="0">
-        <v>0</v>
+        <v>0.76393973753669631</v>
       </c>
       <c r="AI23" s="0">
         <v>0</v>
@@ -4777,19 +4777,19 @@
         <v>0</v>
       </c>
       <c r="AN23" s="0">
-        <v>0</v>
+        <v>0.75036371026446114</v>
       </c>
       <c r="AO23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="0">
         <v>0</v>
       </c>
       <c r="AQ23" s="0">
-        <v>0</v>
+        <v>0.62140374393625364</v>
       </c>
       <c r="AR23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.99459287298554755</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="0">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="AM24" s="0">
-        <v>0</v>
+        <v>0.93048440778286945</v>
       </c>
       <c r="AN24" s="0">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="BC24" s="0">
-        <v>0</v>
+        <v>0.5594519428890159</v>
       </c>
       <c r="BD24" s="0">
         <v>0</v>
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="0">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="0">
-        <v>0</v>
+        <v>0.72194635117977901</v>
       </c>
       <c r="J25" s="0">
         <v>0</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="0">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0</v>
+        <v>0.87587032138079857</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="0">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="0">
-        <v>0</v>
+        <v>0.98684510570260864</v>
       </c>
       <c r="AJ25" s="0">
         <v>0</v>
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="AU25" s="0">
-        <v>0</v>
+        <v>0.68193710505857319</v>
       </c>
       <c r="AV25" s="0">
         <v>0</v>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
+        <v>0.55398110848544424</v>
       </c>
       <c r="C26" s="0">
         <v>0</v>
@@ -5314,13 +5314,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="0">
         <v>0</v>
       </c>
       <c r="O26" s="0">
-        <v>0</v>
+        <v>0.97266863341173648</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.66830407494242983</v>
       </c>
       <c r="Y26" s="0">
-        <v>0</v>
+        <v>0.84222912883930534</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5359,10 +5359,10 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.60906367547728457</v>
       </c>
       <c r="AC26" s="0">
-        <v>0</v>
+        <v>0.58767922168179654</v>
       </c>
       <c r="AD26" s="0">
         <v>0</v>
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="AM26" s="0">
-        <v>0</v>
+        <v>0.97690861626913816</v>
       </c>
       <c r="AN26" s="0">
-        <v>0</v>
+        <v>0.89859352337577669</v>
       </c>
       <c r="AO26" s="0">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="BD26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE26" s="0">
         <v>0</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="BP26" s="0">
-        <v>0</v>
+        <v>0.98209296783129607</v>
       </c>
     </row>
     <row r="27">
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="0">
-        <v>0</v>
+        <v>0.75665229877639173</v>
       </c>
       <c r="D27" s="0">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="0">
-        <v>0</v>
+        <v>0.59982747184808782</v>
       </c>
       <c r="J27" s="0">
         <v>0</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="0">
-        <v>0</v>
+        <v>0.6785520156863839</v>
       </c>
       <c r="N27" s="0">
         <v>0</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="AI27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="0">
         <v>0</v>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="AP27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="0">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="AU27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV27" s="0">
         <v>0</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="0">
-        <v>0</v>
+        <v>0.76240131392175714</v>
       </c>
       <c r="K28" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.93719901638178671</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.74181670543487022</v>
       </c>
       <c r="AD28" s="0">
         <v>0</v>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="AO28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="0">
         <v>0</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="BD28" s="0">
-        <v>0</v>
+        <v>0.88016019699690606</v>
       </c>
       <c r="BE28" s="0">
         <v>0</v>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="BK28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL28" s="0">
         <v>0</v>
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="BO28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP28" s="0">
         <v>0</v>
@@ -5968,25 +5968,25 @@
         <v>0</v>
       </c>
       <c r="Y29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="0">
-        <v>0</v>
+        <v>0.81571478461373026</v>
       </c>
       <c r="AA29" s="0">
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.88325396398164835</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.71190834533627345</v>
       </c>
       <c r="AE29" s="0">
-        <v>0</v>
+        <v>0.99561810413072238</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="0">
-        <v>0</v>
+        <v>0.66397512518966417</v>
       </c>
       <c r="AL29" s="0">
         <v>0</v>
@@ -6097,7 +6097,7 @@
         <v>0</v>
       </c>
       <c r="BP29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="0">
-        <v>0</v>
+        <v>0.85780848595802361</v>
       </c>
       <c r="K30" s="0">
         <v>0</v>
@@ -6186,16 +6186,16 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.94101814828648012</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.79137883367564954</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6222,13 +6222,13 @@
         <v>0</v>
       </c>
       <c r="AO30" s="0">
-        <v>0</v>
+        <v>0.52242005337036568</v>
       </c>
       <c r="AP30" s="0">
         <v>0</v>
       </c>
       <c r="AQ30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR30" s="0">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="BH30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI30" s="0">
         <v>0</v>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="0">
         <v>0</v>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="0">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0</v>
+        <v>0.92653990278972276</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.90340882383133003</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK31" s="0">
         <v>0</v>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="BH31" s="0">
-        <v>0</v>
+        <v>0.59631483418564113</v>
       </c>
       <c r="BI31" s="0">
         <v>0</v>
@@ -6500,10 +6500,10 @@
         <v>0</v>
       </c>
       <c r="BM31" s="0">
-        <v>0</v>
+        <v>0.65416447008918577</v>
       </c>
       <c r="BN31" s="0">
-        <v>0</v>
+        <v>0.64518865122089331</v>
       </c>
       <c r="BO31" s="0">
         <v>0</v>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="0">
-        <v>0</v>
+        <v>0.5670744159159854</v>
       </c>
       <c r="H32" s="0">
         <v>0</v>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="0">
         <v>0</v>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="0">
-        <v>0</v>
+        <v>0.86103674968705191</v>
       </c>
       <c r="T32" s="0">
         <v>0</v>
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6610,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0</v>
+        <v>0.60308239041128553</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32" s="0">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="AR32" s="0">
-        <v>0</v>
+        <v>0.53439328317326895</v>
       </c>
       <c r="AS32" s="0">
         <v>0</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="BA32" s="0">
-        <v>0</v>
+        <v>0.62840552373722358</v>
       </c>
       <c r="BB32" s="0">
         <v>0</v>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="BH32" s="0">
-        <v>0</v>
+        <v>0.89875189737676786</v>
       </c>
       <c r="BI32" s="0">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="M33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="0">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>0</v>
+        <v>0.75545512430184014</v>
       </c>
       <c r="R33" s="0">
         <v>0</v>
@@ -6810,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>0</v>
+        <v>0.5593951143390361</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="0">
         <v>0</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="AQ33" s="0">
-        <v>0</v>
+        <v>0.95325302720306626</v>
       </c>
       <c r="AR33" s="0">
         <v>0</v>
@@ -6870,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="AY33" s="0">
-        <v>0</v>
+        <v>0.94212685282173136</v>
       </c>
       <c r="AZ33" s="0">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="0">
         <v>0</v>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="0">
-        <v>0</v>
+        <v>0.8966418369082374</v>
       </c>
       <c r="X34" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="0">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="AW34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="0">
         <v>0</v>
@@ -7094,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="BE34" s="0">
-        <v>0</v>
+        <v>0.90746782814697668</v>
       </c>
       <c r="BF34" s="0">
         <v>0</v>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="BL34" s="0">
-        <v>0</v>
+        <v>0.58671147126266576</v>
       </c>
       <c r="BM34" s="0">
         <v>0</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="0">
-        <v>0</v>
+        <v>0.79904117880379033</v>
       </c>
       <c r="H35" s="0">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="0">
-        <v>0</v>
+        <v>0.54683332575188492</v>
       </c>
       <c r="M35" s="0">
         <v>0</v>
@@ -7204,13 +7204,13 @@
         <v>0</v>
       </c>
       <c r="Y35" s="0">
-        <v>0</v>
+        <v>0.84032045215438578</v>
       </c>
       <c r="Z35" s="0">
         <v>0</v>
       </c>
       <c r="AA35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="0">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,19 +7240,19 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.90896725685455193</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
       </c>
       <c r="AM35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN35" s="0">
         <v>0</v>
       </c>
       <c r="AO35" s="0">
-        <v>1</v>
+        <v>0.67944867533942599</v>
       </c>
       <c r="AP35" s="0">
         <v>0</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0</v>
+        <v>0.92527283090863821</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="0">
         <v>0</v>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="0">
         <v>0</v>
@@ -7389,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" s="0">
         <v>0</v>
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="AE36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0</v>
+        <v>0.90147252125373223</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="0">
-        <v>0</v>
+        <v>0.73003953403300548</v>
       </c>
       <c r="AQ36" s="0">
         <v>0</v>
@@ -7470,13 +7470,13 @@
         <v>0</v>
       </c>
       <c r="AS36" s="0">
-        <v>0</v>
+        <v>0.84148261273760738</v>
       </c>
       <c r="AT36" s="0">
         <v>0</v>
       </c>
       <c r="AU36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV36" s="0">
         <v>0</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="BB36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC36" s="0">
         <v>0</v>
@@ -7583,7 +7583,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="0">
         <v>0</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="0">
-        <v>0</v>
+        <v>0.63634255581883781</v>
       </c>
       <c r="U37" s="0">
         <v>0</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="AC37" s="0">
-        <v>0</v>
+        <v>0.91738854488452559</v>
       </c>
       <c r="AD37" s="0">
         <v>0</v>
@@ -7637,16 +7637,16 @@
         <v>0</v>
       </c>
       <c r="AF37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="0">
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.62647805835622572</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.68013500446055808</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="BC37" s="0">
-        <v>0</v>
+        <v>0.56591264342510761</v>
       </c>
       <c r="BD37" s="0">
         <v>0</v>
@@ -7718,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="BG37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH37" s="0">
         <v>0</v>
@@ -7739,13 +7739,13 @@
         <v>0</v>
       </c>
       <c r="BN37" s="0">
-        <v>0</v>
+        <v>0.91371290123570448</v>
       </c>
       <c r="BO37" s="0">
         <v>0</v>
       </c>
       <c r="BP37" s="0">
-        <v>0</v>
+        <v>0.91671813760236975</v>
       </c>
     </row>
     <row r="38">
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="0">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0</v>
+        <v>0.61853214012419611</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7855,16 +7855,16 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0</v>
+        <v>0.81337538725037417</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.80159542233087033</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.74020447470788797</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="AV38" s="0">
-        <v>0</v>
+        <v>0.63327205429505906</v>
       </c>
       <c r="AW38" s="0">
         <v>0</v>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="0">
         <v>0</v>
@@ -8025,13 +8025,13 @@
         <v>0</v>
       </c>
       <c r="X39" s="0">
-        <v>0</v>
+        <v>0.55764581512956324</v>
       </c>
       <c r="Y39" s="0">
         <v>0</v>
       </c>
       <c r="Z39" s="0">
-        <v>0</v>
+        <v>0.90373478787420047</v>
       </c>
       <c r="AA39" s="0">
         <v>0</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="AI39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ39" s="0">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.77627868946262435</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="AS39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="0">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="BI39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ39" s="0">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="0">
         <v>0</v>
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="0">
-        <v>0</v>
+        <v>0.93762744884652927</v>
       </c>
       <c r="O40" s="0">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="0">
-        <v>0</v>
+        <v>0.94710999023757281</v>
       </c>
       <c r="X40" s="0">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="0">
-        <v>0</v>
+        <v>0.54610077120032829</v>
       </c>
       <c r="AA40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="AT40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="0">
         <v>0</v>
@@ -8327,13 +8327,13 @@
         <v>0</v>
       </c>
       <c r="BD40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE40" s="0">
         <v>0</v>
       </c>
       <c r="BF40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG40" s="0">
         <v>0</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" s="0">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="0">
-        <v>0</v>
+        <v>0.63095521106444008</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="0">
         <v>0</v>
@@ -8449,13 +8449,13 @@
         <v>0</v>
       </c>
       <c r="AB41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="0">
         <v>0</v>
       </c>
       <c r="AD41" s="0">
-        <v>0</v>
+        <v>0.92838675553063821</v>
       </c>
       <c r="AE41" s="0">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="AI41" s="0">
-        <v>1</v>
+        <v>0.91719757772662613</v>
       </c>
       <c r="AJ41" s="0">
         <v>0</v>
@@ -8500,10 +8500,10 @@
         <v>0</v>
       </c>
       <c r="AS41" s="0">
-        <v>0</v>
+        <v>0.67877802731387549</v>
       </c>
       <c r="AT41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU41" s="0">
         <v>0</v>
@@ -8521,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="AZ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA41" s="0">
         <v>0</v>
@@ -8530,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="BC41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD41" s="0">
         <v>0</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="BL41" s="0">
-        <v>0</v>
+        <v>0.7124976234105318</v>
       </c>
       <c r="BM41" s="0">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="0">
         <v>0</v>
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="0">
-        <v>0</v>
+        <v>0.50919975631959413</v>
       </c>
       <c r="AK42" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="BH42" s="0">
-        <v>0</v>
+        <v>0.69055266361016021</v>
       </c>
       <c r="BI42" s="0">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="BP42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="0">
         <v>0</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="0">
-        <v>0</v>
+        <v>0.5184597129071602</v>
       </c>
       <c r="X43" s="0">
         <v>0</v>
@@ -8867,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="AD43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="0">
         <v>0</v>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="AG43" s="0">
-        <v>0</v>
+        <v>0.6043611851872962</v>
       </c>
       <c r="AH43" s="0">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="BK43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL43" s="0">
         <v>0</v>
@@ -8981,12 +8981,12 @@
         <v>0</v>
       </c>
       <c r="BP43" s="0">
-        <v>0</v>
+        <v>0.52660686869511164</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" s="0">
         <v>0</v>
@@ -9016,13 +9016,13 @@
         <v>0</v>
       </c>
       <c r="K44" s="0">
-        <v>0</v>
+        <v>0.52791975779524192</v>
       </c>
       <c r="L44" s="0">
         <v>0</v>
       </c>
       <c r="M44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="0">
         <v>0</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="0">
         <v>0</v>
@@ -9079,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="AF44" s="0">
-        <v>0</v>
+        <v>0.9860418628181522</v>
       </c>
       <c r="AG44" s="0">
         <v>0</v>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="AY44" s="0">
-        <v>0</v>
+        <v>0.52720752159795348</v>
       </c>
       <c r="AZ44" s="0">
         <v>0</v>
@@ -9166,16 +9166,16 @@
         <v>0</v>
       </c>
       <c r="BI44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ44" s="0">
-        <v>0</v>
+        <v>0.65789203517976236</v>
       </c>
       <c r="BK44" s="0">
         <v>0</v>
       </c>
       <c r="BL44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM44" s="0">
         <v>0</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="0">
-        <v>0</v>
+        <v>0.64938771677260665</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -9228,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" s="0">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="0">
-        <v>0</v>
+        <v>0.79008351211273764</v>
       </c>
       <c r="S45" s="0">
         <v>0</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="0">
-        <v>0</v>
+        <v>0.6061729515700619</v>
       </c>
       <c r="AK45" s="0">
         <v>0</v>
@@ -9306,13 +9306,13 @@
         <v>0</v>
       </c>
       <c r="AM45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN45" s="0">
         <v>0</v>
       </c>
       <c r="AO45" s="0">
-        <v>0</v>
+        <v>0.97345555637201042</v>
       </c>
       <c r="AP45" s="0">
         <v>0</v>
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="BA45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB45" s="0">
         <v>0</v>
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="BI45" s="0">
-        <v>0</v>
+        <v>0.85307023021045514</v>
       </c>
       <c r="BJ45" s="0">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="0">
-        <v>0</v>
+        <v>0.75248437145777236</v>
       </c>
       <c r="E46" s="0">
         <v>0</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="0">
         <v>0</v>
@@ -9515,10 +9515,10 @@
         <v>0</v>
       </c>
       <c r="AN46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP46" s="0">
         <v>0</v>
@@ -9545,13 +9545,13 @@
         <v>0</v>
       </c>
       <c r="AX46" s="0">
-        <v>0</v>
+        <v>0.69004913583178284</v>
       </c>
       <c r="AY46" s="0">
         <v>0</v>
       </c>
       <c r="AZ46" s="0">
-        <v>0</v>
+        <v>0.79005622420326571</v>
       </c>
       <c r="BA46" s="0">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="BM46" s="0">
-        <v>0</v>
+        <v>0.92758884428291455</v>
       </c>
       <c r="BN46" s="0">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="BP46" s="0">
-        <v>0</v>
+        <v>0.85544536826777617</v>
       </c>
     </row>
     <row r="47">
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="0">
-        <v>0</v>
+        <v>0.76374088013690322</v>
       </c>
       <c r="M47" s="0">
         <v>0</v>
@@ -9676,13 +9676,13 @@
         <v>0</v>
       </c>
       <c r="Y47" s="0">
-        <v>0</v>
+        <v>0.62807406293895729</v>
       </c>
       <c r="Z47" s="0">
         <v>0</v>
       </c>
       <c r="AA47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB47" s="0">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK47" s="0">
         <v>0</v>
@@ -9748,19 +9748,19 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.76822621201210284</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
       </c>
       <c r="AY47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ47" s="0">
         <v>0</v>
       </c>
       <c r="BA47" s="0">
-        <v>0</v>
+        <v>0.99689106829249541</v>
       </c>
       <c r="BB47" s="0">
         <v>0</v>
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="BD47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE47" s="0">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="BM47" s="0">
-        <v>0</v>
+        <v>0.74073042553914226</v>
       </c>
       <c r="BN47" s="0">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="0">
         <v>0</v>
@@ -9864,10 +9864,10 @@
         <v>0</v>
       </c>
       <c r="S48" s="0">
-        <v>0</v>
+        <v>0.55316784378682349</v>
       </c>
       <c r="T48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="0">
         <v>0</v>
@@ -9921,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="0">
-        <v>0</v>
+        <v>0.98253827823759665</v>
       </c>
       <c r="AM48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.62231517545432813</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -9966,22 +9966,22 @@
         <v>0</v>
       </c>
       <c r="BA48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC48" s="0">
-        <v>0</v>
+        <v>0.61690955152643856</v>
       </c>
       <c r="BD48" s="0">
         <v>0</v>
       </c>
       <c r="BE48" s="0">
-        <v>0</v>
+        <v>0.71875368200701262</v>
       </c>
       <c r="BF48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG48" s="0">
         <v>0</v>
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="0">
         <v>0</v>
@@ -10040,7 +10040,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="0">
-        <v>0</v>
+        <v>0.58481442429456787</v>
       </c>
       <c r="J49" s="0">
         <v>0</v>
@@ -10061,10 +10061,10 @@
         <v>0</v>
       </c>
       <c r="P49" s="0">
-        <v>0</v>
+        <v>0.92804730983762762</v>
       </c>
       <c r="Q49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" s="0">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="AH49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="0">
         <v>0</v>
@@ -10154,16 +10154,16 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.83305161539437989</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.72946832138116502</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0</v>
+        <v>0.62175684930579955</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="BM49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN49" s="0">
         <v>0</v>
@@ -10217,7 +10217,7 @@
         <v>0</v>
       </c>
       <c r="BP49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -10261,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="0">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="AT50" s="0">
-        <v>0</v>
+        <v>0.85894631338683647</v>
       </c>
       <c r="AU50" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="AW50" s="0">
-        <v>0</v>
+        <v>0.86951109361394896</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.52372443170974325</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10428,7 +10428,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" s="0">
         <v>0</v>
@@ -10479,10 +10479,10 @@
         <v>0</v>
       </c>
       <c r="R51" s="0">
-        <v>0</v>
+        <v>0.92738396771081666</v>
       </c>
       <c r="S51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" s="0">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="AG51" s="0">
-        <v>0</v>
+        <v>0.87726895835648167</v>
       </c>
       <c r="AH51" s="0">
         <v>0</v>
@@ -10557,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="AR51" s="0">
-        <v>0</v>
+        <v>0.71633888074762586</v>
       </c>
       <c r="AS51" s="0">
         <v>0</v>
@@ -10566,7 +10566,7 @@
         <v>0</v>
       </c>
       <c r="AU51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="0">
-        <v>0</v>
+        <v>0.86861671775433957</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="AO52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP52" s="0">
         <v>0</v>
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
       <c r="AT52" s="0">
-        <v>0</v>
+        <v>0.95858329347185611</v>
       </c>
       <c r="AU52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.68999804517286012</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10817,13 +10817,13 @@
         <v>0</v>
       </c>
       <c r="BJ52" s="0">
-        <v>0</v>
+        <v>0.86624221460192519</v>
       </c>
       <c r="BK52" s="0">
         <v>0</v>
       </c>
       <c r="BL52" s="0">
-        <v>0</v>
+        <v>0.98870429235093982</v>
       </c>
       <c r="BM52" s="0">
         <v>0</v>
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="0">
-        <v>0</v>
+        <v>0.53004334354667926</v>
       </c>
       <c r="K53" s="0">
         <v>0</v>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="0">
         <v>0</v>
@@ -10903,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53" s="0">
         <v>0</v>
@@ -10933,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="AF53" s="0">
-        <v>0</v>
+        <v>0.62954267621861815</v>
       </c>
       <c r="AG53" s="0">
         <v>0</v>
@@ -10972,16 +10972,16 @@
         <v>0</v>
       </c>
       <c r="AS53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="0">
         <v>0</v>
       </c>
       <c r="AU53" s="0">
-        <v>0</v>
+        <v>0.73912995663129277</v>
       </c>
       <c r="AV53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11061,13 +11061,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="0">
-        <v>0</v>
+        <v>0.69658890160857534</v>
       </c>
       <c r="G54" s="0">
         <v>0</v>
       </c>
       <c r="H54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" s="0">
         <v>0</v>
@@ -11085,7 +11085,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="0">
-        <v>0</v>
+        <v>0.78716386534539007</v>
       </c>
       <c r="O54" s="0">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK54" s="0">
         <v>0</v>
@@ -11187,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="AV54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW54" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="BK54" s="0">
-        <v>0</v>
+        <v>0.85621067773431192</v>
       </c>
       <c r="BL54" s="0">
         <v>0</v>
@@ -11288,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="0">
-        <v>0</v>
+        <v>0.76553982743486992</v>
       </c>
       <c r="N55" s="0">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="0">
         <v>0</v>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="0">
-        <v>0</v>
+        <v>0.867308775790814</v>
       </c>
       <c r="Y55" s="0">
         <v>0</v>
@@ -11360,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="0">
-        <v>0</v>
+        <v>0.61849411389349607</v>
       </c>
       <c r="AL55" s="0">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="AO55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP55" s="0">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="AV55" s="0">
-        <v>0</v>
+        <v>0.61101926016128205</v>
       </c>
       <c r="AW55" s="0">
         <v>0</v>
@@ -11417,13 +11417,13 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
       </c>
       <c r="BF55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG55" s="0">
         <v>0</v>
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="0">
         <v>0</v>
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>0</v>
+        <v>0.55682825201321107</v>
       </c>
       <c r="R56" s="0">
         <v>0</v>
@@ -11533,13 +11533,13 @@
         <v>0</v>
       </c>
       <c r="Z56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA56" s="0">
         <v>0</v>
       </c>
       <c r="AB56" s="0">
-        <v>0</v>
+        <v>0.85103307746133317</v>
       </c>
       <c r="AC56" s="0">
         <v>0</v>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="AN56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO56" s="0">
         <v>0</v>
@@ -11596,7 +11596,7 @@
         <v>0</v>
       </c>
       <c r="AU56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV56" s="0">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="0">
         <v>0</v>
@@ -11691,7 +11691,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="0">
-        <v>0</v>
+        <v>0.88626283001362194</v>
       </c>
       <c r="K57" s="0">
         <v>0</v>
@@ -11718,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="0">
-        <v>0</v>
+        <v>0.98346371869301696</v>
       </c>
       <c r="T57" s="0">
         <v>0</v>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="AH57" s="0">
-        <v>0</v>
+        <v>0.81619249508336467</v>
       </c>
       <c r="AI57" s="0">
         <v>0</v>
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="AV57" s="0">
-        <v>0</v>
+        <v>0.53472795184249944</v>
       </c>
       <c r="AW57" s="0">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11882,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="0">
-        <v>0</v>
+        <v>0.81814286304133066</v>
       </c>
       <c r="F58" s="0">
         <v>0</v>
@@ -11891,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="0">
         <v>0</v>
@@ -11930,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="0">
-        <v>0</v>
+        <v>0.84533568372017498</v>
       </c>
       <c r="V58" s="0">
         <v>0</v>
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="AN58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO58" s="0">
         <v>0</v>
@@ -12011,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="AV58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW58" s="0">
         <v>0</v>
@@ -12032,13 +12032,13 @@
         <v>0</v>
       </c>
       <c r="BC58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD58" s="0">
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12082,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>0</v>
+        <v>0.62356655896964019</v>
       </c>
       <c r="R59" s="0">
         <v>0</v>
@@ -12139,7 +12139,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59" s="0">
         <v>0</v>
@@ -12184,7 +12184,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59" s="0">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0</v>
+        <v>0.78542385379758506</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12262,19 +12262,19 @@
         <v>0</v>
       </c>
       <c r="BK59" s="0">
-        <v>0</v>
+        <v>0.73829008178588085</v>
       </c>
       <c r="BL59" s="0">
         <v>0</v>
       </c>
       <c r="BM59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN59" s="0">
         <v>0</v>
       </c>
       <c r="BO59" s="0">
-        <v>0</v>
+        <v>0.85961276446261015</v>
       </c>
       <c r="BP59" s="0">
         <v>0</v>
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" s="0">
         <v>0</v>
@@ -12369,13 +12369,13 @@
         <v>0</v>
       </c>
       <c r="AD60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="0">
-        <v>0</v>
+        <v>0.67155002507269912</v>
       </c>
       <c r="AF60" s="0">
-        <v>0</v>
+        <v>0.82619726388722314</v>
       </c>
       <c r="AG60" s="0">
         <v>0</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="AP60" s="0">
-        <v>0</v>
+        <v>0.82781347503698566</v>
       </c>
       <c r="AQ60" s="0">
         <v>0</v>
@@ -12456,13 +12456,13 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0</v>
+        <v>0.58738753949389122</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="BO60" s="0">
-        <v>0</v>
+        <v>0.76520282542070972</v>
       </c>
       <c r="BP60" s="0">
         <v>0</v>
@@ -12527,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="0">
-        <v>0</v>
+        <v>0.92677922592639783</v>
       </c>
       <c r="O61" s="0">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="0">
         <v>0</v>
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" s="0">
         <v>0</v>
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="AM61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN61" s="0">
         <v>0</v>
@@ -12617,10 +12617,10 @@
         <v>0</v>
       </c>
       <c r="AR61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS61" s="0">
-        <v>0</v>
+        <v>0.72722206495646935</v>
       </c>
       <c r="AT61" s="0">
         <v>0</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12718,10 +12718,10 @@
         <v>0</v>
       </c>
       <c r="I62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="0">
         <v>0</v>
@@ -12751,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>0</v>
+        <v>0.79736567054333485</v>
       </c>
       <c r="U62" s="0">
         <v>0</v>
@@ -12823,7 +12823,7 @@
         <v>0</v>
       </c>
       <c r="AR62" s="0">
-        <v>0</v>
+        <v>0.87107164787796054</v>
       </c>
       <c r="AS62" s="0">
         <v>0</v>
@@ -12847,7 +12847,7 @@
         <v>0</v>
       </c>
       <c r="AZ62" s="0">
-        <v>0</v>
+        <v>0.98783252946903644</v>
       </c>
       <c r="BA62" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.84850541299573057</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12960,7 +12960,7 @@
         <v>0</v>
       </c>
       <c r="U63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63" s="0">
         <v>0</v>
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="AB63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC63" s="0">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="0">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="BB63" s="0">
-        <v>0</v>
+        <v>0.63689215212656691</v>
       </c>
       <c r="BC63" s="0">
         <v>0</v>
@@ -13074,16 +13074,16 @@
         <v>0</v>
       </c>
       <c r="BG63" s="0">
-        <v>0</v>
+        <v>0.68940496346586333</v>
       </c>
       <c r="BH63" s="0">
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.94428439653765839</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.55960546633440766</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="0">
-        <v>0</v>
+        <v>0.75765330612220883</v>
       </c>
       <c r="I64" s="0">
         <v>0</v>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="0">
-        <v>0</v>
+        <v>0.91461022716690121</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
@@ -13205,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="AH64" s="0">
-        <v>0</v>
+        <v>0.54174148123169763</v>
       </c>
       <c r="AI64" s="0">
         <v>0</v>
@@ -13226,7 +13226,7 @@
         <v>0</v>
       </c>
       <c r="AO64" s="0">
-        <v>0</v>
+        <v>0.71415382641435277</v>
       </c>
       <c r="AP64" s="0">
         <v>0</v>
@@ -13235,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="AR64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS64" s="0">
         <v>0</v>
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="AZ64" s="0">
-        <v>0</v>
+        <v>0.53571828456836612</v>
       </c>
       <c r="BA64" s="0">
         <v>0</v>
@@ -13301,10 +13301,10 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO64" s="0">
-        <v>0</v>
+        <v>0.8841778237958311</v>
       </c>
       <c r="BP64" s="0">
         <v>0</v>
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="0">
-        <v>0</v>
+        <v>0.74165920529129448</v>
       </c>
       <c r="C65" s="0">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" s="0">
         <v>0</v>
@@ -13369,10 +13369,10 @@
         <v>0</v>
       </c>
       <c r="T65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65" s="0">
-        <v>0</v>
+        <v>0.91538445771386889</v>
       </c>
       <c r="V65" s="0">
         <v>0</v>
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="0">
-        <v>0</v>
+        <v>0.71142235627810713</v>
       </c>
       <c r="AF65" s="0">
         <v>0</v>
@@ -13447,16 +13447,16 @@
         <v>0</v>
       </c>
       <c r="AT65" s="0">
-        <v>0</v>
+        <v>0.591964913027891</v>
       </c>
       <c r="AU65" s="0">
-        <v>0</v>
+        <v>0.97298168344835956</v>
       </c>
       <c r="AV65" s="0">
         <v>0</v>
       </c>
       <c r="AW65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX65" s="0">
         <v>0</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="BG65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.78020284462989276</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13563,13 +13563,13 @@
         <v>0</v>
       </c>
       <c r="P66" s="0">
-        <v>0</v>
+        <v>0.75232132703235088</v>
       </c>
       <c r="Q66" s="0">
         <v>0</v>
       </c>
       <c r="R66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S66" s="0">
         <v>0</v>
@@ -13608,7 +13608,7 @@
         <v>0</v>
       </c>
       <c r="AE66" s="0">
-        <v>0</v>
+        <v>0.87101848419832706</v>
       </c>
       <c r="AF66" s="0">
         <v>0</v>
@@ -13626,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="0">
-        <v>0</v>
+        <v>0.66517306184868563</v>
       </c>
       <c r="AL66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13730,13 +13730,13 @@
         <v>0</v>
       </c>
       <c r="C67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="0">
         <v>0</v>
       </c>
       <c r="E67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="0">
         <v>0</v>
@@ -13745,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="0">
-        <v>0</v>
+        <v>0.62527980337897582</v>
       </c>
       <c r="I67" s="0">
         <v>0</v>
@@ -13805,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="0">
         <v>0</v>
@@ -13898,10 +13898,10 @@
         <v>0</v>
       </c>
       <c r="BG67" s="0">
-        <v>0</v>
+        <v>0.50242461661031257</v>
       </c>
       <c r="BH67" s="0">
-        <v>0</v>
+        <v>0.70118051890063271</v>
       </c>
       <c r="BI67" s="0">
         <v>0</v>
@@ -13913,13 +13913,13 @@
         <v>0</v>
       </c>
       <c r="BL67" s="0">
-        <v>0</v>
+        <v>0.78496848387602747</v>
       </c>
       <c r="BM67" s="0">
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
@@ -13963,7 +13963,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" s="0">
         <v>0</v>
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="0">
-        <v>0</v>
+        <v>0.94001103111990147</v>
       </c>
       <c r="AA68" s="0">
         <v>0</v>
@@ -14014,7 +14014,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD68" s="0">
         <v>0</v>
@@ -14038,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="0">
-        <v>0</v>
+        <v>0.78691395989313495</v>
       </c>
       <c r="AL68" s="0">
         <v>0</v>
@@ -14053,10 +14053,10 @@
         <v>0</v>
       </c>
       <c r="AP68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ68" s="0">
-        <v>0</v>
+        <v>0.59231085191740751</v>
       </c>
       <c r="AR68" s="0">
         <v>0</v>
@@ -14065,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="AT68" s="0">
-        <v>0</v>
+        <v>0.97562921338045161</v>
       </c>
       <c r="AU68" s="0">
         <v>0</v>
@@ -14074,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="AW68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject31.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject31.xlsx
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0.59776029305933842</v>
+        <v>0.79821795875583834</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -233,7 +233,7 @@
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>0.77725701929059943</v>
+        <v>0.92527283090863821</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>0.81760868468223258</v>
+        <v>0.94802636237312088</v>
       </c>
       <c r="Q3" s="0">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="0">
-        <v>0.54045121917039141</v>
+        <v>0.64938771677260665</v>
       </c>
       <c r="AT3" s="0">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="AZ3" s="0">
-        <v>0.82602484691232492</v>
+        <v>0.86861671775433957</v>
       </c>
       <c r="BA3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.54294523293125718</v>
+        <v>0.66879315422556562</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="AT4" s="0">
-        <v>0.56820780366322521</v>
+        <v>0.75248437145777236</v>
       </c>
       <c r="AU4" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>0.5793609792554032</v>
+        <v>0.91244217088861534</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="BF5" s="0">
-        <v>0.53092604257589293</v>
+        <v>0.81814286304133066</v>
       </c>
       <c r="BG5" s="0">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.69110334031741094</v>
+        <v>0.84587132537764509</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="BB6" s="0">
-        <v>0.66303139184293758</v>
+        <v>0.69658890160857534</v>
       </c>
       <c r="BC6" s="0">
         <v>0</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.70880501994261347</v>
+        <v>0.77910382604561423</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="0">
-        <v>0.61828429238127924</v>
+        <v>0.79904117880379033</v>
       </c>
       <c r="AJ7" s="0">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="0">
-        <v>0.55905648961033005</v>
+        <v>0.65698878398041172</v>
       </c>
       <c r="W8" s="0">
         <v>0</v>
@@ -1833,13 +1833,13 @@
         <v>0</v>
       </c>
       <c r="T9" s="0">
-        <v>0.51969978081964752</v>
+        <v>0.66780914533133751</v>
       </c>
       <c r="U9" s="0">
         <v>0</v>
       </c>
       <c r="V9" s="0">
-        <v>0.93073208681542108</v>
+        <v>0.94166600014554247</v>
       </c>
       <c r="W9" s="0">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="0">
-        <v>0.66189740763633287</v>
+        <v>0.72194635117977901</v>
       </c>
       <c r="Z9" s="0">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="AW9" s="0">
-        <v>0.58236990966343138</v>
+        <v>0.58481442429456787</v>
       </c>
       <c r="AX9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.56985660364772761</v>
+        <v>0.71754416546673616</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="0">
-        <v>0.75600960401995421</v>
+        <v>0.88626283001362194</v>
       </c>
       <c r="BF10" s="0">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="0">
-        <v>0.6519670348663712</v>
+        <v>0.6785520156863839</v>
       </c>
       <c r="AB13" s="0">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="BC13" s="0">
-        <v>0.56915761804079446</v>
+        <v>0.76553982743486992</v>
       </c>
       <c r="BD13" s="0">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="0">
-        <v>0.71700245619121461</v>
+        <v>0.9602431727502212</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="0">
-        <v>0.7804537645445655</v>
+        <v>0.93762744884652927</v>
       </c>
       <c r="AO14" s="0">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="BB14" s="0">
-        <v>0.59417014631632092</v>
+        <v>0.78716386534539007</v>
       </c>
       <c r="BC14" s="0">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="BI14" s="0">
-        <v>0.87875830600582161</v>
+        <v>0.92677922592639783</v>
       </c>
       <c r="BJ14" s="0">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="Z15" s="0">
-        <v>0.57996743033476594</v>
+        <v>0.97266863341173648</v>
       </c>
       <c r="AA15" s="0">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="AW16" s="0">
-        <v>0.62293989567690211</v>
+        <v>0.92804730983762762</v>
       </c>
       <c r="AX16" s="0">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.63311106752997148</v>
+        <v>0.80156808810832003</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AY18" s="0">
-        <v>0.59042464383691151</v>
+        <v>0.92738396771081666</v>
       </c>
       <c r="AZ18" s="0">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="0">
-        <v>0.55743302188476418</v>
+        <v>0.9446182105821137</v>
       </c>
       <c r="E19" s="0">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="0">
-        <v>0.58420954319280383</v>
+        <v>0.86103674968705191</v>
       </c>
       <c r="AG19" s="0">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="BE19" s="0">
-        <v>0.90046019964319624</v>
+        <v>0.98346371869301696</v>
       </c>
       <c r="BF19" s="0">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="BL19" s="0">
-        <v>0.85293945659078374</v>
+        <v>0.91461022716690121</v>
       </c>
       <c r="BM19" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0.58624511767832077</v>
+        <v>0.66961584785577866</v>
       </c>
       <c r="S20" s="0">
-        <v>0.64686535032909376</v>
+        <v>0.74778916937774054</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="0">
-        <v>0.62849106417958622</v>
+        <v>0.63634255581883781</v>
       </c>
       <c r="AL20" s="0">
         <v>0</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="BJ20" s="0">
-        <v>0.63412335968243383</v>
+        <v>0.79736567054333485</v>
       </c>
       <c r="BK20" s="0">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="0">
-        <v>0.61287420043676633</v>
+        <v>0.80298655549117748</v>
       </c>
       <c r="F21" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0.90352773981993195</v>
       </c>
       <c r="W21" s="0">
-        <v>0.60124651602387269</v>
+        <v>0.62065155854744036</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="BF21" s="0">
-        <v>0.51160137518507498</v>
+        <v>0.84533568372017498</v>
       </c>
       <c r="BG21" s="0">
         <v>0</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="BM21" s="0">
-        <v>0.59260575277262562</v>
+        <v>0.91538445771386889</v>
       </c>
       <c r="BN21" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0.50980913860168098</v>
+        <v>0.90352773981993195</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="AH23" s="0">
-        <v>0.76393973753669631</v>
+        <v>0.8966418369082374</v>
       </c>
       <c r="AI23" s="0">
         <v>0</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="AN23" s="0">
-        <v>0.75036371026446114</v>
+        <v>0.94710999023757281</v>
       </c>
       <c r="AO23" s="0">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="BC24" s="0">
-        <v>0.5594519428890159</v>
+        <v>0.867308775790814</v>
       </c>
       <c r="BD24" s="0">
         <v>0</v>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="0">
-        <v>0.55398110848544424</v>
+        <v>0.82186823835622469</v>
       </c>
       <c r="C26" s="0">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.66830407494242983</v>
+        <v>0.99459287298554755</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.84222912883930534</v>
+        <v>0.87587032138079857</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5359,10 +5359,10 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.60906367547728457</v>
+        <v>0.93719901638178671</v>
       </c>
       <c r="AC26" s="0">
-        <v>0.58767922168179654</v>
+        <v>0.81571478461373026</v>
       </c>
       <c r="AD26" s="0">
         <v>0</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="0">
-        <v>0.75665229877639173</v>
+        <v>0.81646313486198419</v>
       </c>
       <c r="D27" s="0">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="0">
-        <v>0.59982747184808782</v>
+        <v>0.84566039907982815</v>
       </c>
       <c r="J27" s="0">
         <v>0</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="0">
-        <v>0.76240131392175714</v>
+        <v>0.86307542078166022</v>
       </c>
       <c r="K28" s="0">
         <v>0</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.74181670543487022</v>
+        <v>0.88325396398164835</v>
       </c>
       <c r="AD28" s="0">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.71190834533627345</v>
+        <v>0.94101814828648012</v>
       </c>
       <c r="AE29" s="0">
         <v>0.99561810413072238</v>
@@ -6004,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="0">
-        <v>0.66397512518966417</v>
+        <v>0.91738854488452559</v>
       </c>
       <c r="AL29" s="0">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="0">
-        <v>0.85780848595802361</v>
+        <v>0.98806886116885073</v>
       </c>
       <c r="K30" s="0">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.79137883367564954</v>
+        <v>0.90340882383133003</v>
       </c>
       <c r="AF30" s="0">
         <v>0</v>
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="AO30" s="0">
-        <v>0.52242005337036568</v>
+        <v>0.92838675553063821</v>
       </c>
       <c r="AP30" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.92653990278972276</v>
+        <v>0.99561810413072238</v>
       </c>
       <c r="AD31" s="0">
         <v>0.90340882383133003</v>
@@ -6485,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="BH31" s="0">
-        <v>0.59631483418564113</v>
+        <v>0.67155002507269912</v>
       </c>
       <c r="BI31" s="0">
         <v>0</v>
@@ -6500,10 +6500,10 @@
         <v>0</v>
       </c>
       <c r="BM31" s="0">
-        <v>0.65416447008918577</v>
+        <v>0.71142235627810713</v>
       </c>
       <c r="BN31" s="0">
-        <v>0.64518865122089331</v>
+        <v>0.87101848419832706</v>
       </c>
       <c r="BO31" s="0">
         <v>0</v>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="0">
-        <v>0.5670744159159854</v>
+        <v>0.82630594711146754</v>
       </c>
       <c r="H32" s="0">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="AR32" s="0">
-        <v>0.53439328317326895</v>
+        <v>0.9860418628181522</v>
       </c>
       <c r="AS32" s="0">
         <v>0</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="BA32" s="0">
-        <v>0.62840552373722358</v>
+        <v>0.62954267621861815</v>
       </c>
       <c r="BB32" s="0">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>0.75545512430184014</v>
+        <v>0.82706457591667215</v>
       </c>
       <c r="R33" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.5593951143390361</v>
+        <v>0.60308239041128553</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="0">
-        <v>0.54683332575188492</v>
+        <v>0.58206333809575539</v>
       </c>
       <c r="M35" s="0">
         <v>0</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="0">
-        <v>0.84032045215438578</v>
+        <v>0.98684510570260864</v>
       </c>
       <c r="Z35" s="0">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="AO35" s="0">
-        <v>0.67944867533942599</v>
+        <v>0.91719757772662613</v>
       </c>
       <c r="AP35" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.62647805835622572</v>
+        <v>0.90896725685455193</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.68013500446055808</v>
+        <v>0.80159542233087033</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="BC37" s="0">
-        <v>0.56591264342510761</v>
+        <v>0.61849411389349607</v>
       </c>
       <c r="BD37" s="0">
         <v>0</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0.61853214012419611</v>
+        <v>0.70548555134855295</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.81337538725037417</v>
+        <v>0.90147252125373223</v>
       </c>
       <c r="AK38" s="0">
         <v>0.80159542233087033</v>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.74020447470788797</v>
+        <v>0.77627868946262435</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="AV38" s="0">
-        <v>0.63327205429505906</v>
+        <v>0.98253827823759665</v>
       </c>
       <c r="AW38" s="0">
         <v>0</v>
@@ -8025,13 +8025,13 @@
         <v>0</v>
       </c>
       <c r="X39" s="0">
-        <v>0.55764581512956324</v>
+        <v>0.93048440778286945</v>
       </c>
       <c r="Y39" s="0">
         <v>0</v>
       </c>
       <c r="Z39" s="0">
-        <v>0.90373478787420047</v>
+        <v>0.97690861626913816</v>
       </c>
       <c r="AA39" s="0">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="0">
-        <v>0.54610077120032829</v>
+        <v>0.89859352337577669</v>
       </c>
       <c r="AA40" s="0">
         <v>0</v>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="0">
-        <v>0.63095521106444008</v>
+        <v>0.65685339796006437</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
@@ -8500,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="AS41" s="0">
-        <v>0.67877802731387549</v>
+        <v>0.97345555637201042</v>
       </c>
       <c r="AT41" s="0">
         <v>0</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="BL41" s="0">
-        <v>0.7124976234105318</v>
+        <v>0.71415382641435277</v>
       </c>
       <c r="BM41" s="0">
         <v>0</v>
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="0">
-        <v>0.50919975631959413</v>
+        <v>0.73003953403300548</v>
       </c>
       <c r="AK42" s="0">
         <v>0</v>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="BH42" s="0">
-        <v>0.69055266361016021</v>
+        <v>0.82781347503698566</v>
       </c>
       <c r="BI42" s="0">
         <v>0</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="0">
-        <v>0.5184597129071602</v>
+        <v>0.62140374393625364</v>
       </c>
       <c r="X43" s="0">
         <v>0</v>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="AG43" s="0">
-        <v>0.6043611851872962</v>
+        <v>0.95325302720306626</v>
       </c>
       <c r="AH43" s="0">
         <v>0</v>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="BP43" s="0">
-        <v>0.52660686869511164</v>
+        <v>0.59231085191740751</v>
       </c>
     </row>
     <row r="44">
@@ -9016,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="0">
-        <v>0.52791975779524192</v>
+        <v>0.94497689187669542</v>
       </c>
       <c r="L44" s="0">
         <v>0</v>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="AY44" s="0">
-        <v>0.52720752159795348</v>
+        <v>0.71633888074762586</v>
       </c>
       <c r="AZ44" s="0">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="BJ44" s="0">
-        <v>0.65789203517976236</v>
+        <v>0.87107164787796054</v>
       </c>
       <c r="BK44" s="0">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="0">
-        <v>0.79008351211273764</v>
+        <v>0.94341809453141101</v>
       </c>
       <c r="S45" s="0">
         <v>0</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="0">
-        <v>0.6061729515700619</v>
+        <v>0.84148261273760738</v>
       </c>
       <c r="AK45" s="0">
         <v>0</v>
@@ -9545,13 +9545,13 @@
         <v>0</v>
       </c>
       <c r="AX46" s="0">
-        <v>0.69004913583178284</v>
+        <v>0.85894631338683647</v>
       </c>
       <c r="AY46" s="0">
         <v>0</v>
       </c>
       <c r="AZ46" s="0">
-        <v>0.79005622420326571</v>
+        <v>0.95858329347185611</v>
       </c>
       <c r="BA46" s="0">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="BP46" s="0">
-        <v>0.85544536826777617</v>
+        <v>0.97562921338045161</v>
       </c>
     </row>
     <row r="47">
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="0">
-        <v>0.76374088013690322</v>
+        <v>0.91908496928317995</v>
       </c>
       <c r="M47" s="0">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="0">
-        <v>0.62807406293895729</v>
+        <v>0.68193710505857319</v>
       </c>
       <c r="Z47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.76822621201210284</v>
+        <v>0.83305161539437989</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="BM47" s="0">
-        <v>0.74073042553914226</v>
+        <v>0.97298168344835956</v>
       </c>
       <c r="BN47" s="0">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="0">
-        <v>0.55316784378682349</v>
+        <v>0.60341256643472951</v>
       </c>
       <c r="T48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.62231517545432813</v>
+        <v>0.72946832138116502</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.62175684930579955</v>
+        <v>0.86951109361394896</v>
       </c>
       <c r="AY49" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.52372443170974325</v>
+        <v>0.68999804517286012</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="AG51" s="0">
-        <v>0.87726895835648167</v>
+        <v>0.94212685282173136</v>
       </c>
       <c r="AH51" s="0">
         <v>0</v>
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="BJ52" s="0">
-        <v>0.86624221460192519</v>
+        <v>0.98783252946903644</v>
       </c>
       <c r="BK52" s="0">
         <v>0</v>
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="0">
-        <v>0.53004334354667926</v>
+        <v>0.79356369734218446</v>
       </c>
       <c r="K53" s="0">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="AU53" s="0">
-        <v>0.73912995663129277</v>
+        <v>0.99689106829249541</v>
       </c>
       <c r="AV53" s="0">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="AV55" s="0">
-        <v>0.61101926016128205</v>
+        <v>0.61690955152643856</v>
       </c>
       <c r="AW55" s="0">
         <v>0</v>
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>0.55682825201321107</v>
+        <v>0.66712571696183187</v>
       </c>
       <c r="R56" s="0">
         <v>0</v>
@@ -11539,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="AB56" s="0">
-        <v>0.85103307746133317</v>
+        <v>0.88016019699690606</v>
       </c>
       <c r="AC56" s="0">
         <v>0</v>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="AH57" s="0">
-        <v>0.81619249508336467</v>
+        <v>0.90746782814697668</v>
       </c>
       <c r="AI57" s="0">
         <v>0</v>
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="AV57" s="0">
-        <v>0.53472795184249944</v>
+        <v>0.71875368200701262</v>
       </c>
       <c r="AW57" s="0">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>0.62356655896964019</v>
+        <v>0.73252604703687396</v>
       </c>
       <c r="R59" s="0">
         <v>0</v>
@@ -12375,7 +12375,7 @@
         <v>0.67155002507269912</v>
       </c>
       <c r="AF60" s="0">
-        <v>0.82619726388722314</v>
+        <v>0.89875189737676786</v>
       </c>
       <c r="AG60" s="0">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.58738753949389122</v>
+        <v>0.78542385379758506</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12620,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="0">
-        <v>0.72722206495646935</v>
+        <v>0.85307023021045514</v>
       </c>
       <c r="AT61" s="0">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.84850541299573057</v>
+        <v>0.94428439653765839</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -13059,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="BB63" s="0">
-        <v>0.63689215212656691</v>
+        <v>0.85621067773431192</v>
       </c>
       <c r="BC63" s="0">
         <v>0</v>
@@ -13074,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="BG63" s="0">
-        <v>0.68940496346586333</v>
+        <v>0.73829008178588085</v>
       </c>
       <c r="BH63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.55960546633440766</v>
+        <v>0.78020284462989276</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="0">
-        <v>0.75765330612220883</v>
+        <v>0.97158818074988673</v>
       </c>
       <c r="I64" s="0">
         <v>0</v>
@@ -13205,7 +13205,7 @@
         <v>0</v>
       </c>
       <c r="AH64" s="0">
-        <v>0.54174148123169763</v>
+        <v>0.58671147126266576</v>
       </c>
       <c r="AI64" s="0">
         <v>0</v>
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="AZ64" s="0">
-        <v>0.53571828456836612</v>
+        <v>0.98870429235093982</v>
       </c>
       <c r="BA64" s="0">
         <v>0</v>
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="0">
-        <v>0.74165920529129448</v>
+        <v>0.89756391939216718</v>
       </c>
       <c r="C65" s="0">
         <v>0</v>
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="AT65" s="0">
-        <v>0.591964913027891</v>
+        <v>0.92758884428291455</v>
       </c>
       <c r="AU65" s="0">
         <v>0.97298168344835956</v>
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="0">
-        <v>0.75232132703235088</v>
+        <v>0.97622662166870722</v>
       </c>
       <c r="Q66" s="0">
         <v>0</v>
@@ -13626,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="0">
-        <v>0.66517306184868563</v>
+        <v>0.91371290123570448</v>
       </c>
       <c r="AL66" s="0">
         <v>0</v>
@@ -13745,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="0">
-        <v>0.62527980337897582</v>
+        <v>0.89894470229685386</v>
       </c>
       <c r="I67" s="0">
         <v>0</v>
@@ -13898,10 +13898,10 @@
         <v>0</v>
       </c>
       <c r="BG67" s="0">
-        <v>0.50242461661031257</v>
+        <v>0.85961276446261015</v>
       </c>
       <c r="BH67" s="0">
-        <v>0.70118051890063271</v>
+        <v>0.76520282542070972</v>
       </c>
       <c r="BI67" s="0">
         <v>0</v>
@@ -13913,7 +13913,7 @@
         <v>0</v>
       </c>
       <c r="BL67" s="0">
-        <v>0.78496848387602747</v>
+        <v>0.8841778237958311</v>
       </c>
       <c r="BM67" s="0">
         <v>0</v>
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="0">
-        <v>0.94001103111990147</v>
+        <v>0.98209296783129607</v>
       </c>
       <c r="AA68" s="0">
         <v>0</v>
@@ -14038,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="0">
-        <v>0.78691395989313495</v>
+        <v>0.91671813760236975</v>
       </c>
       <c r="AL68" s="0">
         <v>0</v>
